--- a/jpcore-r4/feature/txcache-test-build/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/txcache-test-build/StructureDefinition-jp-observation-microbiology.xlsx
@@ -929,7 +929,7 @@
     <t>Observation.category:microbiology.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.dummy.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.category:microbiology.coding.version</t>
